--- a/doc/Plans/План.xlsx
+++ b/doc/Plans/План.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11955"/>
@@ -14,12 +14,12 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Лист1!$A$1:$F$18</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
   <si>
     <t>Physic Engine</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>На данном этапе лучше выпускать TornadoEngine по закрытой лицензии. Но исходники игры можно оставить под GPL (идея в том, что обзором игры можно привлечь внимание к коммерциализации или хорошему аппетиту к Tornado)</t>
-  </si>
-  <si>
-    <t>30.02.2014</t>
   </si>
   <si>
     <t>БД MySQL connector C++</t>
@@ -470,7 +467,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -502,22 +499,22 @@
     </row>
     <row r="2" spans="1:6" ht="44.25" customHeight="1">
       <c r="A2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
         <v>26</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="52.5" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" t="s">
@@ -525,34 +522,34 @@
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="75">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" t="s">
         <v>8</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30">
       <c r="A5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -564,9 +561,7 @@
       <c r="A9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="4">
-        <v>41455</v>
-      </c>
+      <c r="B9" s="4"/>
       <c r="C9" t="s">
         <v>6</v>
       </c>
@@ -581,9 +576,7 @@
       <c r="A10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="4">
-        <v>41542</v>
-      </c>
+      <c r="B10" s="4"/>
       <c r="C10" t="s">
         <v>5</v>
       </c>
@@ -595,9 +588,7 @@
       <c r="A11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="4">
-        <v>41572</v>
-      </c>
+      <c r="B11" s="4"/>
       <c r="C11" t="s">
         <v>19</v>
       </c>
@@ -611,9 +602,7 @@
       <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="4">
-        <v>41578</v>
-      </c>
+      <c r="B13" s="4"/>
       <c r="C13" t="s">
         <v>5</v>
       </c>
@@ -625,9 +614,7 @@
       <c r="A14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="4">
-        <v>41608</v>
-      </c>
+      <c r="B14" s="4"/>
       <c r="C14" t="s">
         <v>5</v>
       </c>
@@ -637,13 +624,11 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" t="s">
         <v>22</v>
-      </c>
-      <c r="B15" s="4">
-        <v>41638</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>15</v>
@@ -653,9 +638,7 @@
       <c r="A16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>21</v>
-      </c>
+      <c r="B16" s="7"/>
       <c r="C16" t="s">
         <v>8</v>
       </c>
@@ -664,9 +647,7 @@
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B18" s="4">
-        <v>41718</v>
-      </c>
+      <c r="B18" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.63" right="0.34" top="0.75" bottom="0.31" header="0.3" footer="0.3"/>

--- a/doc/Plans/План.xlsx
+++ b/doc/Plans/План.xlsx
@@ -467,7 +467,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/doc/Plans/План.xlsx
+++ b/doc/Plans/План.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="39">
   <si>
     <t>Physic Engine</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Далее идут необязательные реализации</t>
   </si>
   <si>
-    <t>Дата начала разработки</t>
-  </si>
-  <si>
     <t>Финальная реализация</t>
   </si>
   <si>
@@ -115,15 +112,47 @@
   </si>
   <si>
     <t>2-4 недели</t>
+  </si>
+  <si>
+    <t>Дата начала  разработки</t>
+  </si>
+  <si>
+    <t>начало работ</t>
+  </si>
+  <si>
+    <t>внутренний протокол обмена пакетами (игровой протокол)</t>
+  </si>
+  <si>
+    <t>Сама схема в теории готова (см. папку trash)</t>
+  </si>
+  <si>
+    <t>Класс, который обменивается сам с собой пакетами (классическая реализация, с целью инкапсуляции подробностей)</t>
+  </si>
+  <si>
+    <t>Важный этап, на нем задаются основы работы с физикой, интерфейс фасада, конвейер событий и рабочий объект среды - IBasePhysicObject</t>
+  </si>
+  <si>
+    <t>В основном это касается графики</t>
+  </si>
+  <si>
+    <t>Контур обводки(цель и т.д.), возможно оптимизация графического конвейера</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -151,24 +180,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -467,191 +494,217 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection sqref="A1:F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" customWidth="1"/>
-    <col min="4" max="4" width="17" style="5" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="48.140625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="20.25" customHeight="1">
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="67.5" customHeight="1">
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="63.75" customHeight="1">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3">
+        <v>41750</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="58.5" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3">
+        <v>41764</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="93.75">
+      <c r="A4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="3">
+        <v>41805</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="56.25">
+      <c r="A5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="3">
+        <v>41852</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" s="3">
+        <v>41913</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="37.5">
+      <c r="A9" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="168.75">
+      <c r="A10" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="37.5">
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="56.25">
+      <c r="A12" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="56.25">
+      <c r="A13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="37.5">
+      <c r="A15" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="37.5">
+      <c r="A16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="44.25" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="3"/>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="52.5" customHeight="1">
-      <c r="A3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="F3" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="75">
-      <c r="A4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="30">
-      <c r="A5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5" s="4"/>
-      <c r="C5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="B6" s="4"/>
-      <c r="D6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="4"/>
-      <c r="C9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="6">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="105">
-      <c r="A10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="C11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="30">
-      <c r="A12" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="45">
-      <c r="A13" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="4"/>
-      <c r="C14" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B18" s="4"/>
+      <c r="B18" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.63" right="0.34" top="0.75" bottom="0.31" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="75" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.66" right="0.35433070866141736" top="0.74803149606299213" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="75" orientation="landscape" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/Plans/План.xlsx
+++ b/doc/Plans/План.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="45" windowWidth="18975" windowHeight="11955"/>
@@ -494,7 +494,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -530,7 +530,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="3">
-        <v>41750</v>
+        <v>41821</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>24</v>
@@ -550,7 +550,7 @@
         <v>26</v>
       </c>
       <c r="B3" s="3">
-        <v>41764</v>
+        <v>41835</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>8</v>
@@ -565,12 +565,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="93.75">
+    <row r="4" spans="1:6" ht="75">
       <c r="A4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="3">
-        <v>41805</v>
+        <v>41883</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>8</v>
@@ -585,12 +585,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="56.25">
+    <row r="5" spans="1:6" ht="37.5">
       <c r="A5" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="3">
-        <v>41852</v>
+        <v>41927</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>30</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" s="3">
-        <v>41913</v>
+        <v>41958</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="37.5">
@@ -625,7 +625,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="168.75">
+    <row r="10" spans="1:6" ht="131.25">
       <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
@@ -637,7 +637,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="37.5">
+    <row r="11" spans="1:6">
       <c r="A11" s="4" t="s">
         <v>17</v>
       </c>
@@ -651,7 +651,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="56.25">
+    <row r="13" spans="1:6" ht="37.5">
       <c r="A13" s="4" t="s">
         <v>3</v>
       </c>
@@ -675,7 +675,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="37.5">
+    <row r="15" spans="1:6">
       <c r="A15" s="4" t="s">
         <v>20</v>
       </c>
